--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang10/02.XuLyBH/XLBH2010_CaoAnhVuong.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang10/02.XuLyBH/XLBH2010_CaoAnhVuong.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PhongKyThuat\2. Baocaobaohanh\Nam2020\Thang10\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang10\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="TG102SE" sheetId="30" r:id="rId1"/>
@@ -806,6 +806,36 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -827,40 +857,10 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1170,8 +1170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1202,43 +1202,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106"/>
-      <c r="T1" s="106"/>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
+      <c r="W1" s="98"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="109" t="s">
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="101" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="109"/>
+      <c r="F2" s="101"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -1283,7 +1283,7 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="102" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="103" t="s">
@@ -1303,16 +1303,16 @@
         <v>11</v>
       </c>
       <c r="L4" s="103"/>
-      <c r="M4" s="111" t="s">
+      <c r="M4" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="111" t="s">
+      <c r="N4" s="104" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="102" t="s">
+      <c r="P4" s="112" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="103" t="s">
@@ -1321,7 +1321,7 @@
       <c r="R4" s="103" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="104" t="s">
+      <c r="S4" s="113" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
@@ -1334,7 +1334,7 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="110"/>
+      <c r="A5" s="102"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1366,13 +1366,13 @@
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="105"/>
       <c r="O5" s="103"/>
-      <c r="P5" s="102"/>
+      <c r="P5" s="112"/>
       <c r="Q5" s="103"/>
       <c r="R5" s="103"/>
-      <c r="S5" s="105"/>
+      <c r="S5" s="114"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
       <c r="V5" s="103"/>
@@ -1382,10 +1382,10 @@
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="113">
+      <c r="B6" s="96">
         <v>44131</v>
       </c>
-      <c r="C6" s="113"/>
+      <c r="C6" s="96"/>
       <c r="D6" s="11" t="s">
         <v>47</v>
       </c>
@@ -1418,7 +1418,7 @@
       <c r="S6" s="11"/>
       <c r="T6" s="28"/>
       <c r="U6" s="70"/>
-      <c r="V6" s="96" t="s">
+      <c r="V6" s="106" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -1449,7 +1449,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="70"/>
-      <c r="V7" s="97"/>
+      <c r="V7" s="107"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1478,7 +1478,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="70"/>
-      <c r="V8" s="97"/>
+      <c r="V8" s="107"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1507,7 +1507,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="70"/>
       <c r="U9" s="70"/>
-      <c r="V9" s="97"/>
+      <c r="V9" s="107"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1536,7 +1536,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="70"/>
       <c r="U10" s="70"/>
-      <c r="V10" s="97"/>
+      <c r="V10" s="107"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1565,7 +1565,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="70"/>
       <c r="U11" s="70"/>
-      <c r="V11" s="97"/>
+      <c r="V11" s="107"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1594,7 +1594,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="70"/>
       <c r="U12" s="70"/>
-      <c r="V12" s="96" t="s">
+      <c r="V12" s="106" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -1625,7 +1625,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="70"/>
       <c r="U13" s="70"/>
-      <c r="V13" s="97"/>
+      <c r="V13" s="107"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1654,7 +1654,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="70"/>
       <c r="U14" s="70"/>
-      <c r="V14" s="97"/>
+      <c r="V14" s="107"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1683,7 +1683,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="70"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="97"/>
+      <c r="V15" s="107"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1712,7 +1712,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="70"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="98"/>
+      <c r="V16" s="108"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2946,10 +2946,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="99" t="s">
+      <c r="V56" s="109" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="99">
+      <c r="W56" s="109">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -2978,8 +2978,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="100"/>
-      <c r="W57" s="100"/>
+      <c r="V57" s="110"/>
+      <c r="W57" s="110"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -3005,8 +3005,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="101"/>
-      <c r="W58" s="101"/>
+      <c r="V58" s="111"/>
+      <c r="W58" s="111"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -4293,6 +4293,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -4303,16 +4313,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4355,43 +4355,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106"/>
-      <c r="T1" s="106"/>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
+      <c r="W1" s="98"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="109" t="s">
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="101" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="109"/>
+      <c r="F2" s="101"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -4436,7 +4436,7 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="102" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="103" t="s">
@@ -4456,16 +4456,16 @@
         <v>11</v>
       </c>
       <c r="L4" s="103"/>
-      <c r="M4" s="111" t="s">
+      <c r="M4" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="111" t="s">
+      <c r="N4" s="104" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="102" t="s">
+      <c r="P4" s="112" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="103" t="s">
@@ -4474,7 +4474,7 @@
       <c r="R4" s="103" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="104" t="s">
+      <c r="S4" s="113" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
@@ -4487,7 +4487,7 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="110"/>
+      <c r="A5" s="102"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -4519,13 +4519,13 @@
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="105"/>
       <c r="O5" s="103"/>
-      <c r="P5" s="102"/>
+      <c r="P5" s="112"/>
       <c r="Q5" s="103"/>
       <c r="R5" s="103"/>
-      <c r="S5" s="105"/>
+      <c r="S5" s="114"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
       <c r="V5" s="103"/>
@@ -4535,10 +4535,10 @@
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="113">
+      <c r="B6" s="96">
         <v>44131</v>
       </c>
-      <c r="C6" s="113"/>
+      <c r="C6" s="96"/>
       <c r="D6" s="11" t="s">
         <v>44</v>
       </c>
@@ -4571,7 +4571,7 @@
       <c r="S6" s="11"/>
       <c r="T6" s="28"/>
       <c r="U6" s="67"/>
-      <c r="V6" s="96" t="s">
+      <c r="V6" s="106" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -4602,7 +4602,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="67"/>
-      <c r="V7" s="97"/>
+      <c r="V7" s="107"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4631,7 +4631,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="67"/>
-      <c r="V8" s="97"/>
+      <c r="V8" s="107"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4660,7 +4660,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="67"/>
       <c r="U9" s="67"/>
-      <c r="V9" s="97"/>
+      <c r="V9" s="107"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -4689,7 +4689,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="67"/>
       <c r="U10" s="67"/>
-      <c r="V10" s="97"/>
+      <c r="V10" s="107"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4718,7 +4718,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="67"/>
       <c r="U11" s="67"/>
-      <c r="V11" s="97"/>
+      <c r="V11" s="107"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -4747,7 +4747,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="67"/>
       <c r="U12" s="67"/>
-      <c r="V12" s="96" t="s">
+      <c r="V12" s="106" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -4778,7 +4778,7 @@
       <c r="S13" s="94"/>
       <c r="T13" s="67"/>
       <c r="U13" s="67"/>
-      <c r="V13" s="97"/>
+      <c r="V13" s="107"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -4807,7 +4807,7 @@
       <c r="S14" s="94"/>
       <c r="T14" s="67"/>
       <c r="U14" s="67"/>
-      <c r="V14" s="97"/>
+      <c r="V14" s="107"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -4836,7 +4836,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="67"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="97"/>
+      <c r="V15" s="107"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -4865,7 +4865,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="67"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="98"/>
+      <c r="V16" s="108"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6099,10 +6099,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="99" t="s">
+      <c r="V56" s="109" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="99">
+      <c r="W56" s="109">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6131,8 +6131,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="100"/>
-      <c r="W57" s="100"/>
+      <c r="V57" s="110"/>
+      <c r="W57" s="110"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -6158,8 +6158,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="101"/>
-      <c r="W58" s="101"/>
+      <c r="V58" s="111"/>
+      <c r="W58" s="111"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -7446,6 +7446,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -7456,16 +7466,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7476,7 +7476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
@@ -7508,43 +7508,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106"/>
-      <c r="T1" s="106"/>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
+      <c r="W1" s="98"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="109" t="s">
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="101" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="109"/>
+      <c r="F2" s="101"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="73"/>
@@ -7589,7 +7589,7 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="102" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="103" t="s">
@@ -7609,16 +7609,16 @@
         <v>11</v>
       </c>
       <c r="L4" s="103"/>
-      <c r="M4" s="111" t="s">
+      <c r="M4" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="111" t="s">
+      <c r="N4" s="104" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="102" t="s">
+      <c r="P4" s="112" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="103" t="s">
@@ -7627,7 +7627,7 @@
       <c r="R4" s="103" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="104" t="s">
+      <c r="S4" s="113" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
@@ -7640,7 +7640,7 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="110"/>
+      <c r="A5" s="102"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -7672,13 +7672,13 @@
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="105"/>
       <c r="O5" s="103"/>
-      <c r="P5" s="102"/>
+      <c r="P5" s="112"/>
       <c r="Q5" s="103"/>
       <c r="R5" s="103"/>
-      <c r="S5" s="105"/>
+      <c r="S5" s="114"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
       <c r="V5" s="103"/>
@@ -7688,10 +7688,10 @@
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="113">
+      <c r="B6" s="96">
         <v>44131</v>
       </c>
-      <c r="C6" s="113"/>
+      <c r="C6" s="96"/>
       <c r="D6" s="11" t="s">
         <v>46</v>
       </c>
@@ -7716,7 +7716,7 @@
       <c r="M6" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="N6" s="114">
+      <c r="N6" s="97">
         <v>40000</v>
       </c>
       <c r="O6" s="11"/>
@@ -7732,7 +7732,7 @@
       <c r="S6" s="11"/>
       <c r="T6" s="28"/>
       <c r="U6" s="64"/>
-      <c r="V6" s="96" t="s">
+      <c r="V6" s="106" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -7763,7 +7763,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="64"/>
-      <c r="V7" s="97"/>
+      <c r="V7" s="107"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7792,7 +7792,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="64"/>
-      <c r="V8" s="97"/>
+      <c r="V8" s="107"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7821,7 +7821,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
       <c r="U9" s="64"/>
-      <c r="V9" s="97"/>
+      <c r="V9" s="107"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -7850,7 +7850,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
       <c r="U10" s="64"/>
-      <c r="V10" s="97"/>
+      <c r="V10" s="107"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7879,7 +7879,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
       <c r="U11" s="64"/>
-      <c r="V11" s="97"/>
+      <c r="V11" s="107"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7908,7 +7908,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
       <c r="U12" s="64"/>
-      <c r="V12" s="96" t="s">
+      <c r="V12" s="106" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -7939,7 +7939,7 @@
       <c r="S13" s="60"/>
       <c r="T13" s="64"/>
       <c r="U13" s="64"/>
-      <c r="V13" s="97"/>
+      <c r="V13" s="107"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7968,7 +7968,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
       <c r="U14" s="64"/>
-      <c r="V14" s="97"/>
+      <c r="V14" s="107"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7997,7 +7997,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="64"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="97"/>
+      <c r="V15" s="107"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -8026,7 +8026,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="64"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="98"/>
+      <c r="V16" s="108"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -9260,10 +9260,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="99" t="s">
+      <c r="V56" s="109" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="99">
+      <c r="W56" s="109">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -9292,8 +9292,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="100"/>
-      <c r="W57" s="100"/>
+      <c r="V57" s="110"/>
+      <c r="W57" s="110"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -9319,8 +9319,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="101"/>
-      <c r="W58" s="101"/>
+      <c r="V58" s="111"/>
+      <c r="W58" s="111"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -10607,6 +10607,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -10617,16 +10627,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10669,43 +10669,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106"/>
-      <c r="T1" s="106"/>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
+      <c r="W1" s="98"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="109" t="s">
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="101" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="109"/>
+      <c r="F2" s="101"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -10750,7 +10750,7 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="102" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="103" t="s">
@@ -10770,16 +10770,16 @@
         <v>11</v>
       </c>
       <c r="L4" s="103"/>
-      <c r="M4" s="111" t="s">
+      <c r="M4" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="111" t="s">
+      <c r="N4" s="104" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="102" t="s">
+      <c r="P4" s="112" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="103" t="s">
@@ -10788,7 +10788,7 @@
       <c r="R4" s="103" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="104" t="s">
+      <c r="S4" s="113" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
@@ -10801,7 +10801,7 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="110"/>
+      <c r="A5" s="102"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -10833,13 +10833,13 @@
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="105"/>
       <c r="O5" s="103"/>
-      <c r="P5" s="102"/>
+      <c r="P5" s="112"/>
       <c r="Q5" s="103"/>
       <c r="R5" s="103"/>
-      <c r="S5" s="105"/>
+      <c r="S5" s="114"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
       <c r="V5" s="103"/>
@@ -10869,7 +10869,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="30"/>
-      <c r="V6" s="96" t="s">
+      <c r="V6" s="106" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -10900,7 +10900,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="97"/>
+      <c r="V7" s="107"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -10929,7 +10929,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="97"/>
+      <c r="V8" s="107"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -10958,7 +10958,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
-      <c r="V9" s="97"/>
+      <c r="V9" s="107"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -10987,7 +10987,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="97"/>
+      <c r="V10" s="107"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -11016,7 +11016,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
-      <c r="V11" s="97"/>
+      <c r="V11" s="107"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -11045,7 +11045,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
-      <c r="V12" s="96" t="s">
+      <c r="V12" s="106" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -11076,7 +11076,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="30"/>
       <c r="U13" s="30"/>
-      <c r="V13" s="97"/>
+      <c r="V13" s="107"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -11105,7 +11105,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
-      <c r="V14" s="97"/>
+      <c r="V14" s="107"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -11134,7 +11134,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="30"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="97"/>
+      <c r="V15" s="107"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -11163,7 +11163,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="30"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="98"/>
+      <c r="V16" s="108"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -12397,10 +12397,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="99" t="s">
+      <c r="V56" s="109" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="99">
+      <c r="W56" s="109">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -12429,8 +12429,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="100"/>
-      <c r="W57" s="100"/>
+      <c r="V57" s="110"/>
+      <c r="W57" s="110"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -12456,8 +12456,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="101"/>
-      <c r="W58" s="101"/>
+      <c r="V58" s="111"/>
+      <c r="W58" s="111"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -13744,6 +13744,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -13754,16 +13764,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang10/02.XuLyBH/XLBH2010_CaoAnhVuong.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang10/02.XuLyBH/XLBH2010_CaoAnhVuong.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="85">
   <si>
     <t>STT</t>
   </si>
@@ -249,9 +249,6 @@
     <t>Lock: 125.212.203.114,16565</t>
   </si>
   <si>
-    <t>Thay vỏ</t>
-  </si>
-  <si>
     <t>Tùng</t>
   </si>
   <si>
@@ -277,6 +274,24 @@
   </si>
   <si>
     <t>Cao Anh Vương</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>LE.2.00.---28.200624</t>
+  </si>
+  <si>
+    <t>Nâng cấp FW, thay vỏ</t>
+  </si>
+  <si>
+    <t>Thiết bị không nhận sim</t>
+  </si>
+  <si>
+    <t>Thay mosfet, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>PC+PM</t>
   </si>
 </sst>
 </file>
@@ -812,30 +827,6 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -857,10 +848,34 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1171,7 +1186,7 @@
   <dimension ref="A1:W105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1202,43 +1217,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="98"/>
-      <c r="S1" s="98"/>
-      <c r="T1" s="98"/>
-      <c r="U1" s="98"/>
-      <c r="V1" s="98"/>
-      <c r="W1" s="98"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="108"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="109" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="101" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" s="101"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="111" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="111"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -1283,58 +1298,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103" t="s">
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="103" t="s">
+      <c r="K4" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="103"/>
-      <c r="M4" s="104" t="s">
+      <c r="L4" s="105"/>
+      <c r="M4" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="104" t="s">
+      <c r="N4" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="103" t="s">
+      <c r="O4" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="112" t="s">
+      <c r="P4" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="103" t="s">
+      <c r="Q4" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="103" t="s">
+      <c r="R4" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="113" t="s">
+      <c r="S4" s="106" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="103" t="s">
+      <c r="V4" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="103" t="s">
+      <c r="W4" s="105" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="102"/>
+      <c r="A5" s="112"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1359,24 +1374,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="103"/>
+      <c r="J5" s="105"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="105"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="112"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="114"/>
+      <c r="M5" s="114"/>
+      <c r="N5" s="114"/>
+      <c r="O5" s="105"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="105"/>
+      <c r="R5" s="105"/>
+      <c r="S5" s="107"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="103"/>
-      <c r="W5" s="103"/>
+      <c r="V5" s="105"/>
+      <c r="W5" s="105"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1397,28 +1412,38 @@
         <v>67</v>
       </c>
       <c r="H6" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="I6" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11" t="s">
-        <v>78</v>
-      </c>
       <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
+      <c r="M6" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
+      <c r="O6" s="11" t="s">
+        <v>79</v>
+      </c>
       <c r="P6" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
+        <v>70</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>70</v>
+      </c>
       <c r="S6" s="11"/>
       <c r="T6" s="28"/>
       <c r="U6" s="70"/>
-      <c r="V6" s="106" t="s">
+      <c r="V6" s="98" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -1449,7 +1474,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="70"/>
-      <c r="V7" s="107"/>
+      <c r="V7" s="99"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1478,7 +1503,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="70"/>
-      <c r="V8" s="107"/>
+      <c r="V8" s="99"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1507,7 +1532,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="70"/>
       <c r="U9" s="70"/>
-      <c r="V9" s="107"/>
+      <c r="V9" s="99"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1536,7 +1561,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="70"/>
       <c r="U10" s="70"/>
-      <c r="V10" s="107"/>
+      <c r="V10" s="99"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1565,7 +1590,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="70"/>
       <c r="U11" s="70"/>
-      <c r="V11" s="107"/>
+      <c r="V11" s="99"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1594,7 +1619,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="70"/>
       <c r="U12" s="70"/>
-      <c r="V12" s="106" t="s">
+      <c r="V12" s="98" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -1625,7 +1650,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="70"/>
       <c r="U13" s="70"/>
-      <c r="V13" s="107"/>
+      <c r="V13" s="99"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1654,7 +1679,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="70"/>
       <c r="U14" s="70"/>
-      <c r="V14" s="107"/>
+      <c r="V14" s="99"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1683,7 +1708,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="70"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="107"/>
+      <c r="V15" s="99"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1712,7 +1737,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="70"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="108"/>
+      <c r="V16" s="100"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1895,7 +1920,7 @@
       </c>
       <c r="W22" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2140,7 +2165,7 @@
       </c>
       <c r="W30" s="11">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2364,7 +2389,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2946,10 +2971,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="109" t="s">
+      <c r="V56" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="109">
+      <c r="W56" s="101">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -2978,8 +3003,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="110"/>
-      <c r="W57" s="110"/>
+      <c r="V57" s="102"/>
+      <c r="W57" s="102"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -3005,8 +3030,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="111"/>
-      <c r="W58" s="111"/>
+      <c r="V58" s="103"/>
+      <c r="W58" s="103"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -4293,6 +4318,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -4303,16 +4338,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4323,8 +4348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4355,43 +4380,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="98"/>
-      <c r="S1" s="98"/>
-      <c r="T1" s="98"/>
-      <c r="U1" s="98"/>
-      <c r="V1" s="98"/>
-      <c r="W1" s="98"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="108"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="109" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="101" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" s="101"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="111" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="111"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -4436,58 +4461,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103" t="s">
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="103" t="s">
+      <c r="K4" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="103"/>
-      <c r="M4" s="104" t="s">
+      <c r="L4" s="105"/>
+      <c r="M4" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="104" t="s">
+      <c r="N4" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="103" t="s">
+      <c r="O4" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="112" t="s">
+      <c r="P4" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="103" t="s">
+      <c r="Q4" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="103" t="s">
+      <c r="R4" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="113" t="s">
+      <c r="S4" s="106" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="103" t="s">
+      <c r="V4" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="103" t="s">
+      <c r="W4" s="105" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="102"/>
+      <c r="A5" s="112"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -4512,24 +4537,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="103"/>
+      <c r="J5" s="105"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="105"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="112"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="114"/>
+      <c r="M5" s="114"/>
+      <c r="N5" s="114"/>
+      <c r="O5" s="105"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="105"/>
+      <c r="R5" s="105"/>
+      <c r="S5" s="107"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="103"/>
-      <c r="W5" s="103"/>
+      <c r="V5" s="105"/>
+      <c r="W5" s="105"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -4557,21 +4582,27 @@
       <c r="K6" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="L6" s="11"/>
+      <c r="L6" s="11" t="s">
+        <v>80</v>
+      </c>
       <c r="M6" s="11" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
+        <v>70</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="11"/>
       <c r="T6" s="28"/>
       <c r="U6" s="67"/>
-      <c r="V6" s="106" t="s">
+      <c r="V6" s="98" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -4602,7 +4633,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="67"/>
-      <c r="V7" s="107"/>
+      <c r="V7" s="99"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4631,7 +4662,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="67"/>
-      <c r="V8" s="107"/>
+      <c r="V8" s="99"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4660,7 +4691,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="67"/>
       <c r="U9" s="67"/>
-      <c r="V9" s="107"/>
+      <c r="V9" s="99"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -4689,7 +4720,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="67"/>
       <c r="U10" s="67"/>
-      <c r="V10" s="107"/>
+      <c r="V10" s="99"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4718,7 +4749,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="67"/>
       <c r="U11" s="67"/>
-      <c r="V11" s="107"/>
+      <c r="V11" s="99"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -4747,7 +4778,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="67"/>
       <c r="U12" s="67"/>
-      <c r="V12" s="106" t="s">
+      <c r="V12" s="98" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -4778,7 +4809,7 @@
       <c r="S13" s="94"/>
       <c r="T13" s="67"/>
       <c r="U13" s="67"/>
-      <c r="V13" s="107"/>
+      <c r="V13" s="99"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -4807,7 +4838,7 @@
       <c r="S14" s="94"/>
       <c r="T14" s="67"/>
       <c r="U14" s="67"/>
-      <c r="V14" s="107"/>
+      <c r="V14" s="99"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -4836,7 +4867,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="67"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="107"/>
+      <c r="V15" s="99"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -4865,7 +4896,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="67"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="108"/>
+      <c r="V16" s="100"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4984,7 +5015,7 @@
       </c>
       <c r="W20" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5453,7 +5484,7 @@
       </c>
       <c r="W35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5517,7 +5548,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6099,10 +6130,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="109" t="s">
+      <c r="V56" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="109">
+      <c r="W56" s="101">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6131,8 +6162,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="110"/>
-      <c r="W57" s="110"/>
+      <c r="V57" s="102"/>
+      <c r="W57" s="102"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -6158,8 +6189,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="111"/>
-      <c r="W58" s="111"/>
+      <c r="V58" s="103"/>
+      <c r="W58" s="103"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -7446,6 +7477,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -7456,16 +7497,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7477,7 +7508,7 @@
   <dimension ref="A1:W105"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7508,43 +7539,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="98"/>
-      <c r="S1" s="98"/>
-      <c r="T1" s="98"/>
-      <c r="U1" s="98"/>
-      <c r="V1" s="98"/>
-      <c r="W1" s="98"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="108"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="109" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="101" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" s="101"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="111" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="111"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="73"/>
@@ -7589,58 +7620,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103" t="s">
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="103" t="s">
+      <c r="K4" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="103"/>
-      <c r="M4" s="104" t="s">
+      <c r="L4" s="105"/>
+      <c r="M4" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="104" t="s">
+      <c r="N4" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="103" t="s">
+      <c r="O4" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="112" t="s">
+      <c r="P4" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="103" t="s">
+      <c r="Q4" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="103" t="s">
+      <c r="R4" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="113" t="s">
+      <c r="S4" s="106" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="103" t="s">
+      <c r="V4" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="103" t="s">
+      <c r="W4" s="105" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="102"/>
+      <c r="A5" s="112"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -7665,24 +7696,24 @@
       <c r="I5" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="103"/>
+      <c r="J5" s="105"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="105"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="112"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="114"/>
+      <c r="M5" s="114"/>
+      <c r="N5" s="114"/>
+      <c r="O5" s="105"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="105"/>
+      <c r="R5" s="105"/>
+      <c r="S5" s="107"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="103"/>
-      <c r="W5" s="103"/>
+      <c r="V5" s="105"/>
+      <c r="W5" s="105"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -7704,35 +7735,35 @@
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="K6" s="11" t="s">
         <v>73</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>74</v>
       </c>
       <c r="L6" s="11"/>
       <c r="M6" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N6" s="97">
         <v>40000</v>
       </c>
       <c r="O6" s="11"/>
       <c r="P6" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q6" s="11" t="s">
         <v>18</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S6" s="11"/>
       <c r="T6" s="28"/>
       <c r="U6" s="64"/>
-      <c r="V6" s="106" t="s">
+      <c r="V6" s="98" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -7763,7 +7794,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="64"/>
-      <c r="V7" s="107"/>
+      <c r="V7" s="99"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7792,7 +7823,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="64"/>
-      <c r="V8" s="107"/>
+      <c r="V8" s="99"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7821,7 +7852,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
       <c r="U9" s="64"/>
-      <c r="V9" s="107"/>
+      <c r="V9" s="99"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -7850,7 +7881,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
       <c r="U10" s="64"/>
-      <c r="V10" s="107"/>
+      <c r="V10" s="99"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7879,7 +7910,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
       <c r="U11" s="64"/>
-      <c r="V11" s="107"/>
+      <c r="V11" s="99"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7908,7 +7939,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
       <c r="U12" s="64"/>
-      <c r="V12" s="106" t="s">
+      <c r="V12" s="98" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -7939,7 +7970,7 @@
       <c r="S13" s="60"/>
       <c r="T13" s="64"/>
       <c r="U13" s="64"/>
-      <c r="V13" s="107"/>
+      <c r="V13" s="99"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7968,7 +7999,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
       <c r="U14" s="64"/>
-      <c r="V14" s="107"/>
+      <c r="V14" s="99"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7997,7 +8028,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="64"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="107"/>
+      <c r="V15" s="99"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -8026,7 +8057,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="64"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="108"/>
+      <c r="V16" s="100"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -9260,10 +9291,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="109" t="s">
+      <c r="V56" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="109">
+      <c r="W56" s="101">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -9292,8 +9323,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="110"/>
-      <c r="W57" s="110"/>
+      <c r="V57" s="102"/>
+      <c r="W57" s="102"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -9319,8 +9350,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="111"/>
-      <c r="W58" s="111"/>
+      <c r="V58" s="103"/>
+      <c r="W58" s="103"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -10607,6 +10638,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -10617,16 +10658,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10669,43 +10700,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="98"/>
-      <c r="S1" s="98"/>
-      <c r="T1" s="98"/>
-      <c r="U1" s="98"/>
-      <c r="V1" s="98"/>
-      <c r="W1" s="98"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="108"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="109" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="101" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" s="101"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="111" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="111"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -10750,58 +10781,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103" t="s">
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="103" t="s">
+      <c r="K4" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="103"/>
-      <c r="M4" s="104" t="s">
+      <c r="L4" s="105"/>
+      <c r="M4" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="104" t="s">
+      <c r="N4" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="103" t="s">
+      <c r="O4" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="112" t="s">
+      <c r="P4" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="103" t="s">
+      <c r="Q4" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="103" t="s">
+      <c r="R4" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="113" t="s">
+      <c r="S4" s="106" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="103" t="s">
+      <c r="V4" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="103" t="s">
+      <c r="W4" s="105" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="102"/>
+      <c r="A5" s="112"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -10826,24 +10857,24 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="103"/>
+      <c r="J5" s="105"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="105"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="112"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="114"/>
+      <c r="M5" s="114"/>
+      <c r="N5" s="114"/>
+      <c r="O5" s="105"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="105"/>
+      <c r="R5" s="105"/>
+      <c r="S5" s="107"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="103"/>
-      <c r="W5" s="103"/>
+      <c r="V5" s="105"/>
+      <c r="W5" s="105"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -10869,7 +10900,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="30"/>
-      <c r="V6" s="106" t="s">
+      <c r="V6" s="98" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -10900,7 +10931,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="107"/>
+      <c r="V7" s="99"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -10929,7 +10960,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="107"/>
+      <c r="V8" s="99"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -10958,7 +10989,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
-      <c r="V9" s="107"/>
+      <c r="V9" s="99"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -10987,7 +11018,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="107"/>
+      <c r="V10" s="99"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -11016,7 +11047,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
-      <c r="V11" s="107"/>
+      <c r="V11" s="99"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -11045,7 +11076,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
-      <c r="V12" s="106" t="s">
+      <c r="V12" s="98" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -11076,7 +11107,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="30"/>
       <c r="U13" s="30"/>
-      <c r="V13" s="107"/>
+      <c r="V13" s="99"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -11105,7 +11136,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
-      <c r="V14" s="107"/>
+      <c r="V14" s="99"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -11134,7 +11165,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="30"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="107"/>
+      <c r="V15" s="99"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -11163,7 +11194,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="30"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="108"/>
+      <c r="V16" s="100"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -12397,10 +12428,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="109" t="s">
+      <c r="V56" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="109">
+      <c r="W56" s="101">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -12429,8 +12460,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="110"/>
-      <c r="W57" s="110"/>
+      <c r="V57" s="102"/>
+      <c r="W57" s="102"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -12456,8 +12487,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="111"/>
-      <c r="W58" s="111"/>
+      <c r="V58" s="103"/>
+      <c r="W58" s="103"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -13744,6 +13775,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -13754,16 +13795,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
